--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005"/>
+    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="依頼事項" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="182">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -6485,6 +6485,11 @@
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t xml:space="preserve">タクチケ印刷データ出力後に交通宿泊データが修正されてBYLから届いた場合、スキャンデータと交通宿泊TBLのTimeStampBYLが異なる為、キーの不一致で取込エラーとなる。
+</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
@@ -6493,7 +6498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6669,13 +6674,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -7194,7 +7192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7232,9 +7230,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7265,11 +7260,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7333,12 +7334,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7692,21 +7687,21 @@
   </sheetPr>
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="24" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
@@ -7715,46 +7710,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="44"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7764,7 +7759,7 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -7942,7 +7937,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
@@ -8062,14 +8057,14 @@
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
@@ -8089,7 +8084,7 @@
       <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7"/>
@@ -8114,13 +8109,13 @@
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7"/>
@@ -8145,13 +8140,13 @@
       <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="7"/>
@@ -8182,7 +8177,7 @@
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="7"/>
@@ -8216,7 +8211,7 @@
       <c r="F17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
         <v>13</v>
@@ -8244,10 +8239,10 @@
       <c r="E18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9" t="s">
         <v>13</v>
@@ -8275,10 +8270,10 @@
       <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9" t="s">
         <v>13</v>
@@ -8306,10 +8301,10 @@
       <c r="E20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9" t="s">
         <v>13</v>
@@ -8337,10 +8332,10 @@
       <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9" t="s">
         <v>13</v>
@@ -8368,7 +8363,7 @@
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="7"/>
@@ -8399,10 +8394,10 @@
       <c r="E23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9" t="s">
         <v>13</v>
@@ -8430,7 +8425,7 @@
       <c r="E24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="7"/>
@@ -8461,11 +8456,11 @@
       <c r="E25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="9" t="s">
         <v>13</v>
       </c>
@@ -8492,11 +8487,11 @@
       <c r="E26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="9" t="s">
         <v>154</v>
       </c>
@@ -8523,11 +8518,11 @@
       <c r="E27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="9" t="s">
         <v>13</v>
       </c>
@@ -8554,11 +8549,11 @@
       <c r="E28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="9" t="s">
         <v>13</v>
       </c>
@@ -8585,7 +8580,7 @@
       <c r="E29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="7"/>
@@ -8616,7 +8611,7 @@
       <c r="E30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="7"/>
@@ -8647,7 +8642,7 @@
       <c r="E31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="7"/>
@@ -8678,7 +8673,7 @@
       <c r="E32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="7"/>
@@ -8709,7 +8704,7 @@
       <c r="E33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="7"/>
@@ -8740,7 +8735,7 @@
       <c r="E34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="7"/>
@@ -8771,10 +8766,10 @@
       <c r="E35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9" t="s">
         <v>13</v>
@@ -8802,7 +8797,7 @@
       <c r="E36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="7"/>
@@ -8833,7 +8828,7 @@
       <c r="E37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G37" s="7"/>
@@ -8864,7 +8859,7 @@
       <c r="E38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="7"/>
@@ -8895,7 +8890,7 @@
       <c r="E39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="7"/>
@@ -8926,7 +8921,7 @@
       <c r="E40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="7"/>
@@ -8957,7 +8952,7 @@
       <c r="E41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="7"/>
@@ -8988,7 +8983,7 @@
       <c r="E42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G42" s="7"/>
@@ -9019,7 +9014,7 @@
       <c r="E43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G43" s="7"/>
@@ -9050,7 +9045,7 @@
       <c r="E44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="7"/>
@@ -9081,7 +9076,7 @@
       <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>114</v>
       </c>
       <c r="G45" s="7"/>
@@ -9112,7 +9107,7 @@
       <c r="E46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="7"/>
@@ -9143,7 +9138,7 @@
       <c r="E47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G47" s="7"/>
@@ -9174,7 +9169,7 @@
       <c r="E48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>155</v>
       </c>
       <c r="G48" s="7"/>
@@ -9205,7 +9200,7 @@
       <c r="E49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G49" s="7"/>
@@ -9236,7 +9231,7 @@
       <c r="E50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G50" s="7"/>
@@ -9267,7 +9262,7 @@
       <c r="E51" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>91</v>
       </c>
       <c r="G51" s="7"/>
@@ -9298,7 +9293,7 @@
       <c r="E52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G52" s="7"/>
@@ -9329,7 +9324,7 @@
       <c r="E53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G53" s="7"/>
@@ -9360,7 +9355,7 @@
       <c r="E54" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="14" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="7"/>
@@ -9391,7 +9386,7 @@
       <c r="E55" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="14" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="7"/>
@@ -9422,7 +9417,7 @@
       <c r="E56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="14" t="s">
         <v>100</v>
       </c>
       <c r="G56" s="7"/>
@@ -9453,7 +9448,7 @@
       <c r="E57" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>102</v>
       </c>
       <c r="G57" s="7"/>
@@ -9484,7 +9479,7 @@
       <c r="E58" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G58" s="7"/>
@@ -9515,7 +9510,7 @@
       <c r="E59" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G59" s="7"/>
@@ -9546,7 +9541,7 @@
       <c r="E60" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G60" s="7"/>
@@ -9577,7 +9572,7 @@
       <c r="E61" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="14" t="s">
         <v>75</v>
       </c>
       <c r="G61" s="7"/>
@@ -9639,7 +9634,7 @@
       <c r="E63" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G63" s="7"/>
@@ -9661,7 +9656,7 @@
       <c r="B64" s="5">
         <v>41863</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -9670,7 +9665,7 @@
       <c r="E64" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="14" t="s">
         <v>112</v>
       </c>
       <c r="G64" s="7"/>
@@ -9692,7 +9687,7 @@
       <c r="B65" s="5">
         <v>41863</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -9701,7 +9696,7 @@
       <c r="E65" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>116</v>
       </c>
       <c r="G65" s="7"/>
@@ -9723,7 +9718,7 @@
       <c r="B66" s="5">
         <v>41863</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -9732,7 +9727,7 @@
       <c r="E66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>118</v>
       </c>
       <c r="G66" s="7"/>
@@ -9754,7 +9749,7 @@
       <c r="B67" s="5">
         <v>41863</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -9763,7 +9758,7 @@
       <c r="E67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>117</v>
       </c>
       <c r="G67" s="7"/>
@@ -9785,7 +9780,7 @@
       <c r="B68" s="5">
         <v>41863</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -9794,7 +9789,7 @@
       <c r="E68" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G68" s="7"/>
@@ -9816,7 +9811,7 @@
       <c r="B69" s="5">
         <v>41863</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -9825,7 +9820,7 @@
       <c r="E69" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G69" s="7"/>
@@ -9847,7 +9842,7 @@
       <c r="B70" s="5">
         <v>41863</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -9856,7 +9851,7 @@
       <c r="E70" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>124</v>
       </c>
       <c r="G70" s="7"/>
@@ -9878,7 +9873,7 @@
       <c r="B71" s="5">
         <v>41863</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -9887,7 +9882,7 @@
       <c r="E71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="14" t="s">
         <v>125</v>
       </c>
       <c r="G71" s="7"/>
@@ -9909,7 +9904,7 @@
       <c r="B72" s="5">
         <v>41863</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -9918,7 +9913,7 @@
       <c r="E72" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="14" t="s">
         <v>116</v>
       </c>
       <c r="G72" s="7"/>
@@ -9940,7 +9935,7 @@
       <c r="B73" s="5">
         <v>41863</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -9949,7 +9944,7 @@
       <c r="E73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="14" t="s">
         <v>128</v>
       </c>
       <c r="G73" s="7"/>
@@ -9971,7 +9966,7 @@
       <c r="B74" s="5">
         <v>41863</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -9980,10 +9975,10 @@
       <c r="E74" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G74" s="19"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="8"/>
       <c r="I74" s="9" t="s">
         <v>158</v>
@@ -10002,7 +9997,7 @@
       <c r="B75" s="5">
         <v>41863</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -10011,10 +10006,10 @@
       <c r="E75" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="19"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="8"/>
       <c r="I75" s="9" t="s">
         <v>13</v>
@@ -10033,7 +10028,7 @@
       <c r="B76" s="5">
         <v>41863</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -10042,10 +10037,10 @@
       <c r="E76" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G76" s="19"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="8"/>
       <c r="I76" s="9" t="s">
         <v>13</v>
@@ -10064,7 +10059,7 @@
       <c r="B77" s="5">
         <v>41863</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -10073,10 +10068,10 @@
       <c r="E77" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G77" s="19"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="8"/>
       <c r="I77" s="9" t="s">
         <v>13</v>
@@ -10104,10 +10099,10 @@
       <c r="E78" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="19"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="8"/>
       <c r="I78" s="9" t="s">
         <v>13</v>
@@ -10135,10 +10130,10 @@
       <c r="E79" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="8"/>
       <c r="I79" s="9" t="s">
         <v>13</v>
@@ -10166,7 +10161,7 @@
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="14" t="s">
         <v>138</v>
       </c>
       <c r="G80" s="7"/>
@@ -10188,7 +10183,7 @@
       <c r="B81" s="5">
         <v>41863</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -10197,7 +10192,7 @@
       <c r="E81" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="14" t="s">
         <v>142</v>
       </c>
       <c r="G81" s="7"/>
@@ -10219,7 +10214,7 @@
       <c r="B82" s="5">
         <v>41863</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -10228,7 +10223,7 @@
       <c r="E82" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>141</v>
       </c>
       <c r="G82" s="7"/>
@@ -10250,7 +10245,7 @@
       <c r="B83" s="5">
         <v>41863</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -10259,7 +10254,7 @@
       <c r="E83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G83" s="7"/>
@@ -10281,7 +10276,7 @@
       <c r="B84" s="5">
         <v>41863</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -10290,7 +10285,7 @@
       <c r="E84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="14" t="s">
         <v>146</v>
       </c>
       <c r="G84" s="7"/>
@@ -10312,7 +10307,7 @@
       <c r="B85" s="5">
         <v>41863</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -10321,7 +10316,7 @@
       <c r="E85" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G85" s="7"/>
@@ -10343,7 +10338,7 @@
       <c r="B86" s="5">
         <v>41863</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -10352,7 +10347,7 @@
       <c r="E86" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="14" t="s">
         <v>148</v>
       </c>
       <c r="G86" s="7"/>
@@ -10374,7 +10369,7 @@
       <c r="B87" s="5">
         <v>41863</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -10383,7 +10378,7 @@
       <c r="E87" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="14" t="s">
         <v>149</v>
       </c>
       <c r="G87" s="7"/>
@@ -10405,7 +10400,7 @@
       <c r="B88" s="5">
         <v>41863</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -10414,7 +10409,7 @@
       <c r="E88" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="14" t="s">
         <v>153</v>
       </c>
       <c r="G88" s="7"/>
@@ -10436,7 +10431,7 @@
       <c r="B89" s="5">
         <v>41863</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -10445,7 +10440,7 @@
       <c r="E89" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="14" t="s">
         <v>152</v>
       </c>
       <c r="G89" s="7"/>
@@ -10467,7 +10462,7 @@
       <c r="B90" s="5">
         <v>41863</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -10476,7 +10471,7 @@
       <c r="E90" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F90" s="48" t="s">
+      <c r="F90" s="26" t="s">
         <v>174</v>
       </c>
       <c r="G90" s="7"/>
@@ -10498,7 +10493,7 @@
       <c r="B91" s="5">
         <v>41863</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -10507,7 +10502,7 @@
       <c r="E91" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="14" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="7"/>
@@ -10529,7 +10524,7 @@
       <c r="B92" s="5">
         <v>41863</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -10538,7 +10533,7 @@
       <c r="E92" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="14" t="s">
         <v>178</v>
       </c>
       <c r="G92" s="7"/>
@@ -10560,7 +10555,7 @@
       <c r="B93" s="5">
         <v>41863</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -10569,7 +10564,7 @@
       <c r="E93" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="14" t="s">
         <v>177</v>
       </c>
       <c r="G93" s="7"/>
@@ -10591,7 +10586,7 @@
       <c r="B94" s="5">
         <v>41863</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -10600,7 +10595,7 @@
       <c r="E94" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="14" t="s">
         <v>179</v>
       </c>
       <c r="G94" s="7"/>
@@ -10645,21 +10640,21 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="24" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
@@ -10668,46 +10663,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="44"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -10717,7 +10712,7 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -10815,16 +10810,22 @@
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5">
+        <v>41885</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
@@ -10843,7 +10844,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -10909,12 +10910,12 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10926,7 +10927,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
@@ -10941,9 +10942,9 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -10958,9 +10959,9 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
@@ -10977,7 +10978,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
@@ -11011,7 +11012,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -11028,7 +11029,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
@@ -11045,7 +11046,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -11062,7 +11063,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
@@ -11079,7 +11080,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -11096,7 +11097,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9"/>
@@ -11113,7 +11114,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
@@ -11130,9 +11131,9 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
@@ -11147,9 +11148,9 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
@@ -11164,9 +11165,9 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
@@ -11181,9 +11182,9 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
@@ -11198,7 +11199,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
@@ -11215,7 +11216,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
@@ -11232,7 +11233,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
@@ -11249,7 +11250,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
@@ -11266,7 +11267,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>

--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="依頼事項" sheetId="1" r:id="rId1"/>
     <sheet name="その他" sheetId="2" r:id="rId2"/>
+    <sheet name="高橋メモ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">その他!$A$1:$L$33</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -6490,6 +6491,430 @@
 </t>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>新着・会場手配　</t>
+    <rPh sb="0" eb="2">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ＴＯＰ受信日時</t>
+    <rPh sb="3" eb="5">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>「更新日ではなくTOPがデータ取込した日」はあるか？</t>
+    <rPh sb="1" eb="4">
+      <t>コウシンビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>検索・会場手配</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ＢＹＬ区分（プルダウン）</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>検索条件に追加するＢＹＬ区分とはなに？</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>宿泊交通手配</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>MTGに紐付く宿泊・交通・タクチケ・ＭＲいずれかの手配依頼があったら●　レスポンスは大丈夫か？</t>
+    <rPh sb="4" eb="5">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>会場（詳細）</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>「基本情報へ」</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>交通にあるように「基本情報」アイコンを追加ｌし、ここのアイコンから「基本情報」の「団体コード」や「ＴＯＰ担当者」を登録できるようにしてください</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ポップアップでの登録は可能か？</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>施設新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>新着・交通</t>
+    <rPh sb="0" eb="2">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ＭＲ手配</t>
+    <rPh sb="2" eb="4">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>表示時間が懸念される。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケネン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>検索・交通</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>交通（詳細）</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>券種プルダウン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>項目数多過ぎ。　プルダウン＊２０</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオス</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>「DR宿泊費」「MR宿泊費」の枠が金額入力し次に進むとページトップに戻ってしまう</t>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ＤＲ宿泊費（税込）
+ＭＲ宿泊費（税込）
+</t>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼイコミ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>精算（２画面目）</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>精算用団体コード</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンタイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>どこで登録している？</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>精算コメント</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>どこで登録している？新規追加？</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>精算（詳細）</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>上記３つの小計の合計をだしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>上記３つとは何？</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Monolith画面修正依頼事項(0812TOP更新).xlsx</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
@@ -6498,7 +6923,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6688,6 +7113,13 @@
       <sz val="9"/>
       <color rgb="FF0033CC"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -7192,7 +7624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7334,6 +7766,21 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -10640,7 +11087,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -11297,4 +11744,185 @@
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="15.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="50" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="49" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="48">
+        <v>41887</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C2" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C3" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C8" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C13" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="依頼事項" sheetId="1" r:id="rId1"/>
     <sheet name="その他" sheetId="2" r:id="rId2"/>
     <sheet name="高橋メモ" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">その他!$A$1:$L$33</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="227">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -6912,6 +6913,202 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Phase1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>分析データ出力機能</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>社員旅費総合一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>参加者旅費総合一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>会合費用総合一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケ実車一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>航空券実車一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウクウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケ券種の追加</t>
+    <rPh sb="4" eb="6">
+      <t>ケンシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>航空券実車一</t>
+    <rPh sb="0" eb="3">
+      <t>コウクウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イッ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>交通宿泊詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>基本情報詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>発注番号入力項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>請求先入力項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -7704,6 +7901,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7766,21 +7978,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8136,7 +8333,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -8157,46 +8354,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -8206,9 +8403,9 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
@@ -11110,46 +11307,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11159,7 +11356,7 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -11750,173 +11947,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9" style="49"/>
-    <col min="3" max="3" width="15.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="50" customWidth="1"/>
-    <col min="6" max="6" width="34.625" style="49" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="25.375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9" style="28"/>
+    <col min="3" max="3" width="15.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="29" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="48">
+      <c r="B1" s="27">
         <v>41887</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="28" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="28" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="28" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11925,4 +12122,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -6934,180 +6934,189 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>社員旅費総合一覧表</t>
-    <rPh sb="0" eb="2">
+    <t>交通宿泊詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>基本情報詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>発注番号入力項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>請求先入力項目追加</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>　　会合費用総合一覧表</t>
+    <rPh sb="2" eb="4">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>　　参加者旅費総合一覧表</t>
+    <rPh sb="2" eb="4">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>　　社員旅費総合一覧表</t>
+    <rPh sb="2" eb="4">
       <t>シャイン</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>リョヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>　　タクチケ実車一覧</t>
+    <rPh sb="6" eb="8">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>　　航空券実車一覧</t>
     <rPh sb="2" eb="4">
-      <t>リョヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>参加者旅費総合一覧表</t>
-    <rPh sb="0" eb="2">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リョヒ</t>
+      <t>コウクウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ソウゴウ</t>
+      <t>ジッシャ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>会合費用総合一覧表</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>タクチケ実車一覧</t>
-    <rPh sb="4" eb="6">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>航空券実車一覧</t>
-    <rPh sb="0" eb="2">
-      <t>コウクウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>タクチケ券種の追加</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケ券種プルダウン追加</t>
     <rPh sb="4" eb="6">
       <t>ケンシュ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>航空券実車一</t>
-    <rPh sb="0" eb="3">
-      <t>コウクウケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イッ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>交通宿泊詳細画面</t>
-    <rPh sb="0" eb="2">
-      <t>コウツウ</t>
-    </rPh>
+    <t>ＤＲ航空券番号１～６入力欄の追加</t>
     <rPh sb="2" eb="4">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>基本情報詳細画面</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>発注番号入力項目追加</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+      <t>コウクウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>請求先入力項目追加</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="19"/>
@@ -12126,73 +12135,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
       <c r="C2" t="s">
         <v>215</v>
       </c>
-      <c r="D2" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D3" t="s">
-        <v>217</v>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>216</v>
+      <c r="C4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>219</v>
+      <c r="C5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>220</v>
+      <c r="C6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
       <c r="D8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" t="s">
         <v>225</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="3765" windowWidth="15300" windowHeight="4005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="依頼事項" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="230">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -7118,6 +7118,129 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">発券済のタクチケ回答欄をクリアして欲しいとの依頼が度々ある。
+交通宿泊テーブルとタクチケ発行テーブルの該当行を初期化する機能が必要。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※担当者限定? Or 恵和社内用?</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タビタビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケメンテナンス</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>他の会合への振替を依頼される事があるので、
+他の会合・参加者・行№違いにも対応できるようにする。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -8341,7 +8464,7 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -11293,9 +11416,9 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11486,34 +11609,50 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5">
+        <v>41891</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5">
+        <v>41891</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
@@ -12137,7 +12276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="232">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -7241,6 +7241,107 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>予備タクチケをDRに渡した場合
+下記の2パターンの運用があるように見受けられる。
+(山田の記憶違いかも･･･)
+①予備タクチケはそのままの状態で、DRのタクチケ回答欄にタクチケ№のみ入力するパターン
+②予備タクチケの回答欄とタクチケ台帳を初期化してDRのタクチケ回答欄に登録し直すパターン
+どちらも正しいのか?
+それともタクチケメンテナンスでの振替が柔軟にできるようになれば問題ないのか?</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ジュウナン</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>起票日</t>
+    <rPh sb="0" eb="2">
+      <t>キヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -8464,8 +8565,8 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11418,7 +11519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11441,7 +11542,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>1</v>
@@ -11659,17 +11760,25 @@
       <c r="K9" s="11"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5">
+        <v>41892</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>

--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="246">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -7342,6 +7342,282 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>BYLから基本情報が未着にも関わらず、Drの手配依頼が先に来ているデータの抽出</t>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>現在、全て基本情報ありきでデータ抽出を行っている。
+基本情報未着の手配依頼に対応する方法を要検討？
+または、基本情報が無い手配依頼の一覧をCSV等に出力する事で対応?</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ミチャク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>交通・宿泊手配回答登録</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>MR宿泊費とMR都税の入力項目を灰色化する</t>
+    <rPh sb="2" eb="5">
+      <t>シュクハクヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トゼイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>精算金額入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>MR宿泊費とMR都税を入力不可として欲しい。(精算時のCodeの問題)</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケ券種に｢その他｣を追加して欲しい</t>
+    <rPh sb="4" eb="6">
+      <t>ケンシュ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>コードマスタにレコード追加
+・名称=その他
+・コード=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OTHER←これで良い?</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+  </si>
+  <si>
+    <t>【新着】【検索】会場手配</t>
+    <rPh sb="1" eb="3">
+      <t>シンチャク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【新着】【検索】交通・宿泊手配依頼</t>
+    <rPh sb="8" eb="10">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>講演会開催日後に会場の見積依頼及び事後登録されている会場データの抽出。
+会場手配依頼の(BYL Timestampが最も古いもの)</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイサイビ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>バイエルへの資料提出用</t>
+    <rPh sb="6" eb="8">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>テイシュツヨウ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -8564,9 +8840,9 @@
   </sheetPr>
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11518,8 +11794,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -11785,85 +12061,133 @@
       <c r="K10" s="11"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5">
+        <v>41908</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="5">
+        <v>41908</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="15"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="5">
+        <v>41908</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="5">
+        <v>41912</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="5">
+        <v>41913</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>

--- a/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
+++ b/44 修正依頼/Monolith修正依頼事項（140812作成）.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="249">
   <si>
     <t>TOP依頼日</t>
     <rPh sb="3" eb="6">
@@ -7618,6 +7618,45 @@
     </rPh>
     <rPh sb="8" eb="11">
       <t>テイシュツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タクチケ未決処理</t>
+    <rPh sb="4" eb="6">
+      <t>ミケツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>初期表示一覧表示でデータ量によりタイムアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>初期表示やめる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -11795,7 +11834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -12194,17 +12233,27 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="5">
+        <v>41936</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
